--- a/data/trans_bre/CONS_REC-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_REC-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>159,1%</t>
+          <t>89,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>115,81%</t>
+          <t>72,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>109,56%</t>
+          <t>177,29%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 8,18</t>
+          <t>0,93; 5,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 5,08</t>
+          <t>-0,81; 5,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,24</t>
+          <t>2,23; 8,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,88; 417,95</t>
+          <t>16,6; 211,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,25; 345,26</t>
+          <t>-25,62; 343,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,64; 222,35</t>
+          <t>37,01; 419,17</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>143,68%</t>
+          <t>80,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>139,67%</t>
+          <t>132,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>135,2%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 5,06</t>
+          <t>0,61; 7,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,55</t>
+          <t>-0,17; 4,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 6,97</t>
+          <t>-0,05; 4,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 583,12</t>
+          <t>6,64; 213,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 480,58</t>
+          <t>-18,14; 733,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,18; 225,0</t>
+          <t>-26,18; 519,69</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>10,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>451,74%</t>
+          <t>45,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>284,69%</t>
+          <t>1248,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,98%</t>
+          <t>361,73%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 12,82</t>
+          <t>-0,97; 5,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 11,74</t>
+          <t>6,57; 17,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 4,63</t>
+          <t>1,97; 10,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,41; 1570,1</t>
+          <t>-17,87; 144,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81,36; 655,32</t>
+          <t>281,3; 7513,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 114,48</t>
+          <t>22,44; 1529,28</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>158,9%</t>
+          <t>65,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>70,8%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>62,7%</t>
+          <t>244,07%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 5,91</t>
+          <t>1,18; 6,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,12</t>
+          <t>-1,93; 3,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,2</t>
+          <t>2,23; 7,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38,0; 421,51</t>
+          <t>17,84; 139,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,67; 173,64</t>
+          <t>-50,89; 168,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,29; 132,32</t>
+          <t>76,25; 624,6</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>242,33%</t>
+          <t>118,52%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>119,16%</t>
+          <t>381,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>115,71%</t>
+          <t>352,56%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 7,74</t>
+          <t>1,92; 8,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,02</t>
+          <t>1,14; 6,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,3</t>
+          <t>1,41; 6,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,62; 1055,78</t>
+          <t>26,9; 313,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,92; 289,63</t>
+          <t>-5,48; 4637,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,47; 256,75</t>
+          <t>39,22; 1240,97</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>9,86</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4,84</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,05</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,15</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>380,8%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>447,09%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>784,59%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>362,21%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>6,18; 13,02</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 6,93</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,44; 6,77</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,48; 10,47</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>96,4; 1116,12</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>146,69; 977,11</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>185,76%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>140,28%</t>
+          <t>180,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>99,79%</t>
+          <t>211,74%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,46</t>
+          <t>3,32; 5,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,82</t>
+          <t>1,67; 4,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,1</t>
+          <t>2,92; 5,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>109,65; 315,26</t>
+          <t>65,34; 137,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>84,75; 208,79</t>
+          <t>74,19; 337,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>70,08; 142,19</t>
+          <t>114,18; 363,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_REC-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_REC-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>89,34%</t>
+          <t>80,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,62</t>
+          <t>0,63; 4,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 5,12</t>
+          <t>-0,82; 4,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,6; 211,66</t>
+          <t>12,84; 186,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,62; 343,47</t>
+          <t>-25,74; 294,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>80,5%</t>
+          <t>99,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 7,31</t>
+          <t>1,35; 6,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,11</t>
+          <t>-0,19; 3,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,64; 213,29</t>
+          <t>23,14; 233,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 733,72</t>
+          <t>-22,57; 783,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>45,15%</t>
+          <t>82,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,76</t>
+          <t>0,33; 6,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 17,02</t>
+          <t>6,2; 16,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 144,52</t>
+          <t>7,26; 192,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>281,3; 7513,48</t>
+          <t>257,51; 8263,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>65,31%</t>
+          <t>50,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,25</t>
+          <t>0,42; 5,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 3,7</t>
+          <t>-2,38; 3,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,84; 139,56</t>
+          <t>4,62; 115,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,89; 168,37</t>
+          <t>-66,39; 161,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>118,52%</t>
+          <t>150,59%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,45</t>
+          <t>2,44; 7,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 6,78</t>
+          <t>1,27; 6,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,9; 313,08</t>
+          <t>48,24; 339,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 4637,01</t>
+          <t>-7,33; 3647,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>380,8%</t>
+          <t>404,89%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,18; 13,02</t>
+          <t>5,92; 12,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,93</t>
+          <t>0,97; 7,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>96,4; 1116,12</t>
+          <t>118,21; 1417,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>106,63%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,57</t>
+          <t>3,21; 5,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,46</t>
+          <t>1,48; 4,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>65,34; 137,84</t>
+          <t>73,01; 153,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>74,19; 337,98</t>
+          <t>78,35; 352,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_REC-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_REC-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5,42</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2,74</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,42</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>86,47%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>177,29%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>80,65%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>72,89%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>177,29%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,46; 4,97</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 8,76</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,63; 4,74</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 4,73</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,23; 8,76</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-19,73; 332,26</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>37,01; 419,17</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>12,84; 186,68</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-25,74; 294,13</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>37,01; 419,17</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>4,06</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>128,2%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>135,2%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>99,48%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>132,26%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>135,2%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,23; 3,6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 4,69</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>1,35; 6,82</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 3,91</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,05; 4,69</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-23,27; 790,37</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-26,18; 519,69</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>23,14; 233,7</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-22,57; 783,16</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-26,18; 519,69</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>9,44</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5,87</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>3,13</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,59</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,87</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>513,64%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>361,73%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>82,7%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1248,71%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>361,73%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>5,08; 15,09</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 10,84</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,33; 6,04</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6,2; 16,47</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,97; 10,84</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>130,58; 1573,2</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>22,44; 1529,28</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>7,26; 192,25</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>257,51; 8263,01</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>22,44; 1529,28</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>2,77</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,17</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>72,91%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>244,07%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>50,51%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>41,29%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>244,07%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-0,09; 4,52</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 7,0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,42; 5,03</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,38; 3,56</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,23; 7,0</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-10,62; 210,22</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>76,25; 624,6</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4,62; 115,9</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-66,39; 161,54</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>76,25; 624,6</t>
         </is>
       </c>
     </row>
@@ -929,27 +929,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>363,49%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>352,56%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>150,59%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>381,69%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>352,56%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>2,45; 7,56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 6,84</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>2,44; 7,51</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 6,74</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 6,84</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>47,32; 2170,61</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>39,22; 1240,97</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>48,24; 339,4</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-7,33; 3647,97</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>39,22; 1240,97</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>4,51</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>9,2</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,84</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>461,87%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>404,89%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>447,09%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1,0; 6,73</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>5,92; 12,25</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 7,33</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>118,21; 1417,09</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4,13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>4,25</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,2</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>158,53%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>211,74%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>106,63%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>180,3%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>211,74%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,24; 4,33</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 5,59</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>3,21; 5,35</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 4,33</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,92; 5,59</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>76,72; 253,36</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>114,18; 363,12</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>73,01; 153,02</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>78,35; 352,56</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>114,18; 363,12</t>
         </is>
       </c>
     </row>
